--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFDC4A7-B87B-430A-9FD2-36BF74A380E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,95 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+  <si>
+    <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
+  </si>
+  <si>
+    <t>Es wird im DropDown-Menü eine List aller möglichen Spieler angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt die Option "Mensch" im DropDown-Menü aus.</t>
+  </si>
+  <si>
+    <t>Als Spieler 1 wird ein Mensch festgelegt. Im DropDown-Menü wird angezeigt, dass die Option ausgewählt wurde.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 2.</t>
+  </si>
+  <si>
+    <t>Test: Standardablauf</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt die Option "KI 1" im DropDown-Menü aus.</t>
+  </si>
+  <si>
+    <t>Als Spieler 1 wird die "KI 1" festgelegt. Im DropDown-Menü wird angezeigt, dass die Option ausgewählt wurde.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das Feld "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Folgezustände an.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf ein Feld des Spielfeldes.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den "Play-Pfeil".</t>
+  </si>
+  <si>
+    <t>Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt abwechselnd auf ein freies Spielfeld und auf den "Play-Pfeil" bis das Spiel vorbei ist.</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den Verlauf plus alle weiteren möglichen Folgezustände an. Sobald das Spiel vorbei ist, wird das Spielergebnis angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Button "Neustart".</t>
+  </si>
+  <si>
+    <t>Die Spielerauswahl wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer behält die Konfiguration bei und klickt auf "Spiel starten"</t>
+  </si>
+  <si>
+    <t>Test: AutoPlay/Pause</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "Play"-Symbol</t>
+  </si>
+  <si>
+    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "NextMove"-Symbol</t>
+  </si>
+  <si>
+    <t>Das "Pause"-Symbol wird durch ein "Play"-Symbol ersetzt. Es wird kein Zug ausgeführt, da der Mensch am Zug ist.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,11 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +422,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="94.21875" customWidth="1"/>
+    <col min="2" max="2" width="185.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFDC4A7-B87B-430A-9FD2-36BF74A380E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DE1073-77F8-455E-8F40-BCC403300F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt.</t>
   </si>
   <si>
-    <t>Der Nutzer klickt auf den "Play-Pfeil".</t>
-  </si>
-  <si>
     <t>Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
   </si>
   <si>
@@ -87,16 +84,49 @@
     <t>Test: AutoPlay/Pause</t>
   </si>
   <si>
-    <t>Der Nutzer klickt auf das "Play"-Symbol</t>
-  </si>
-  <si>
-    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt.</t>
-  </si>
-  <si>
-    <t>Der Nutzer klickt auf das "NextMove"-Symbol</t>
-  </si>
-  <si>
     <t>Das "Pause"-Symbol wird durch ein "Play"-Symbol ersetzt. Es wird kein Zug ausgeführt, da der Mensch am Zug ist.</t>
+  </si>
+  <si>
+    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt. Es wird kein Zug ausgeführt, da der Mensch am Zug ist.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "NextMove"-Symbol.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf ein unbesetztes Feld des Spielfeldes.</t>
+  </si>
+  <si>
+    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt. Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt. Kurze Zeit später macht die KI einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Es passiert nichts, da das Feld bereits besetzt ist.</t>
+  </si>
+  <si>
+    <t>Test: Doppelbesetzung</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf ein bereits besetztes Feld des Spielfeldes.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "Pause"-Symbol.</t>
+  </si>
+  <si>
+    <t>Das "Pause"-Symbol wird durch ein "Play"-Symbol ersetzt.</t>
+  </si>
+  <si>
+    <t>Test: Spiel mit zwei Menschen</t>
+  </si>
+  <si>
+    <t>Als Spieler 2 wird ein Mensch festgelegt. Im DropDown-Menü wird angezeigt, dass die Option ausgewählt wurde.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "Play"-Symbol.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "O" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt.</t>
   </si>
 </sst>
 </file>
@@ -423,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,31 +520,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -522,23 +552,169 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DE1073-77F8-455E-8F40-BCC403300F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E97A0BA-4DC6-47F9-B480-2202CBE3C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Das angeklickte Feld wird mit dem Zeichen "O" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf "Spiel starten"</t>
   </si>
 </sst>
 </file>
@@ -455,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +674,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E97A0BA-4DC6-47F9-B480-2202CBE3C26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BCB310-21DB-4B9F-82EC-CE9BCA4CC7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 2.</t>
   </si>
   <si>
-    <t>Test: Standardablauf</t>
-  </si>
-  <si>
     <t>Der Nutzer wählt die Option "KI 1" im DropDown-Menü aus.</t>
   </si>
   <si>
@@ -66,21 +63,12 @@
     <t>Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
   </si>
   <si>
-    <t>Der Nutzer klickt abwechselnd auf ein freies Spielfeld und auf den "Play-Pfeil" bis das Spiel vorbei ist.</t>
-  </si>
-  <si>
-    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den Verlauf plus alle weiteren möglichen Folgezustände an. Sobald das Spiel vorbei ist, wird das Spielergebnis angezeigt.</t>
-  </si>
-  <si>
     <t>Der Nutzer klickt auf den Button "Neustart".</t>
   </si>
   <si>
     <t>Die Spielerauswahl wird angezeigt.</t>
   </si>
   <si>
-    <t>Der Nutzer behält die Konfiguration bei und klickt auf "Spiel starten"</t>
-  </si>
-  <si>
     <t>Test: AutoPlay/Pause</t>
   </si>
   <si>
@@ -130,6 +118,69 @@
   </si>
   <si>
     <t>Der Nutzer klickt auf "Spiel starten"</t>
+  </si>
+  <si>
+    <t>Es wird im DropDown-Menü eine Liste aller möglichen Spieler angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld oben links.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wechselt damit ab, auf ein zufälliges freies Spielfeld zu klicken und auf den Zug der KI zu warten, bis das Spiel vorbei ist.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf ein zufälliges freies Spielfeld.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das Feld "Belohnung ausführen".</t>
+  </si>
+  <si>
+    <t>Es wird in den Startansicht gewechselt, in welchem die Spieler ausgewählt werden.</t>
+  </si>
+  <si>
+    <t>Test: Standardablauf/Epic</t>
+  </si>
+  <si>
+    <t>(Noch nicht implementiert: Die Checkbox wird mit einem Haken versehen.)</t>
+  </si>
+  <si>
+    <t>(Noch nicht implementiert: Der Nutzer klickt auf die Checkbox "Belohnungsansicht überspringen".)</t>
+  </si>
+  <si>
+    <t>(Noch nicht implementiert: Der Nutzer klickt auf die Checkbox "Startansicht überspringen".)</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle Äquivalenzklassenvertreter der möglichen Folgezustände an.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt. Ein zufälliges freies Feld wird von der KI besetzt und mit Zeichen "O" versehen.  Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. Sobald das Spiel vorbei ist, wird das Spielergebnis angezeigt. (Nicht implementiert: Es wird in die Belohnungsansicht gewechselt. Auf der rechten Seite wird als Graph der gesamte gewichtete Verlauf mit pro Zustand allen möglichen Äquivalenzklassenvertretern der Folgezuständen angezeigt.)</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Äquivalenzklassenvertreter der Folgezustände an.</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. (Noch nicht implementiert: Sobald das Spiel vorbei ist, wird direkt das Spielfeld geleert und der Verlauf-Graph auf das leere Feld mit allen möglichen Äquivalenzklassenvertretern der Folgezuständen geändert.)</t>
+  </si>
+  <si>
+    <t>(Noch nicht implementiert: Der Haken in der Checkbox wird entfernt.)</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. (Noch nicht implementiert: Sobald das Spiel vorbei ist, wird in die Startansicht gewechselt.)</t>
+  </si>
+  <si>
+    <t>(Noch nicht implementiert: Der Nutzer klickt auf das Feld "Reset KI" neben dem DropDown-Menü, in welchem die KI 1 ausgewählt ist.)</t>
+  </si>
+  <si>
+    <t>(Noch nicht implementiert: Es ändert sich nichts, da nur die Gewichte der KI gelöscht wurden.)</t>
   </si>
 </sst>
 </file>
@@ -456,21 +507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="94.21875" customWidth="1"/>
-    <col min="2" max="2" width="185.77734375" customWidth="1"/>
+    <col min="1" max="1" width="124.109375" customWidth="1"/>
+    <col min="2" max="2" width="228.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,230 +545,294 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
+      <c r="B22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
+      <c r="A31" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
+      <c r="A35" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BCB310-21DB-4B9F-82EC-CE9BCA4CC7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5374D5EE-EFE3-4EF9-976C-20F5017454C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>(Noch nicht implementiert: Es ändert sich nichts, da nur die Gewichte der KI gelöscht wurden.)</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 1 "Mensch", für Spieler 2 "KI 1" und klickt auf das Feld "Spiel starten".</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,148 +678,148 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -824,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,6 +835,14 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5374D5EE-EFE3-4EF9-976C-20F5017454C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D4854-6DE6-4BA5-BF35-73EE40521821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -54,15 +54,9 @@
     <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Folgezustände an.</t>
   </si>
   <si>
-    <t>Der Nutzer klickt auf ein Feld des Spielfeldes.</t>
-  </si>
-  <si>
     <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt.</t>
   </si>
   <si>
-    <t>Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
-  </si>
-  <si>
     <t>Der Nutzer klickt auf den Button "Neustart".</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>Der Nutzer klickt auf ein unbesetztes Feld des Spielfeldes.</t>
   </si>
   <si>
-    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt. Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
-  </si>
-  <si>
-    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt. Kurze Zeit später macht die KI einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Folgezustände angezeigt.</t>
-  </si>
-  <si>
     <t>Es passiert nichts, da das Feld bereits besetzt ist.</t>
   </si>
   <si>
@@ -177,13 +165,40 @@
     <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. (Noch nicht implementiert: Sobald das Spiel vorbei ist, wird in die Startansicht gewechselt.)</t>
   </si>
   <si>
-    <t>(Noch nicht implementiert: Der Nutzer klickt auf das Feld "Reset KI" neben dem DropDown-Menü, in welchem die KI 1 ausgewählt ist.)</t>
-  </si>
-  <si>
     <t>(Noch nicht implementiert: Es ändert sich nichts, da nur die Gewichte der KI gelöscht wurden.)</t>
   </si>
   <si>
     <t>Der Nutzer wählt für Spieler 1 "Mensch", für Spieler 2 "KI 1" und klickt auf das Feld "Spiel starten".</t>
+  </si>
+  <si>
+    <t>(Noch nicht implementiert: Der Nutzer klickt auf das Feld "Reset" neben KI 1.)</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld unten rechts.</t>
+  </si>
+  <si>
+    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt. Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Äquivalenzklassenvertreter der Folgezustände angezeigt. Kurze Zeit später macht die KI einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Äquivalenzklassenvertreter der Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "NextMove"-Symbol (="Play"-Symbol mit | rechts).</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf ein zufälliges unbesetztes Feld des Spielfeldes.</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das "Pause"-Symbol ersetzt weiterhin das "Play"-Symbol. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Äquivalenzklassenvertreter der Folgezustände an.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wechselt damit ab, auf ein zufälliges freies Spielfeld zu klicken und auf den Zug der KI zu warten, bis das Spiel vorbei ist und Spieler 1 gewonnen hat.</t>
+  </si>
+  <si>
+    <t>Das "Pause"-Symbol wird durch ein "Play"-Symbol ersetzt. Es wird kein Zug ausgeführt, da das Spiel vorbei ist.</t>
+  </si>
+  <si>
+    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt.</t>
   </si>
 </sst>
 </file>
@@ -510,21 +525,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="124.109375" customWidth="1"/>
+    <col min="1" max="1" width="142.21875" customWidth="1"/>
     <col min="2" max="2" width="228.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -532,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -548,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,63 +579,63 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -628,222 +643,286 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B30" t="s">
-        <v>25</v>
+      <c r="B31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>22</v>
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>26</v>
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
+      <c r="A40" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
+      <c r="A44" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D4854-6DE6-4BA5-BF35-73EE40521821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC5DDB0-A24B-48FE-99AC-D5DDE382B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Der Nutzer klickt auf das "Pause"-Symbol.</t>
   </si>
   <si>
-    <t>Das "Pause"-Symbol wird durch ein "Play"-Symbol ersetzt.</t>
-  </si>
-  <si>
     <t>Test: Spiel mit zwei Menschen</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. Sobald das Spiel vorbei ist, wird das Spielergebnis angezeigt. (Nicht implementiert: Es wird in die Belohnungsansicht gewechselt. Auf der rechten Seite wird als Graph der gesamte gewichtete Verlauf mit pro Zustand allen möglichen Äquivalenzklassenvertretern der Folgezuständen angezeigt.)</t>
   </si>
   <si>
-    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Äquivalenzklassenvertreter der Folgezustände an.</t>
-  </si>
-  <si>
     <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. (Noch nicht implementiert: Sobald das Spiel vorbei ist, wird direkt das Spielfeld geleert und der Verlauf-Graph auf das leere Feld mit allen möglichen Äquivalenzklassenvertretern der Folgezuständen geändert.)</t>
   </si>
   <si>
@@ -180,25 +174,31 @@
     <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt. Die KI macht einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt.</t>
   </si>
   <si>
-    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Äquivalenzklassenvertreter der Folgezustände angezeigt. Kurze Zeit später macht die KI einen zufälligen Zug und belegt somit ein zufälliges unbesetztes Feld. Dieses wird mit dem Zeichen "O" versehen. Im Graph wird der erneuerte Verlauf plus alle möglichen Äquivalenzklassenvertreter der Folgezustände angezeigt.</t>
-  </si>
-  <si>
     <t>Der Nutzer klickt auf das "NextMove"-Symbol (="Play"-Symbol mit | rechts).</t>
   </si>
   <si>
     <t>Der Nutzer klickt auf ein zufälliges unbesetztes Feld des Spielfeldes.</t>
   </si>
   <si>
-    <t>Es wird in die Spielansicht gewechselt. Das "Pause"-Symbol ersetzt weiterhin das "Play"-Symbol. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Äquivalenzklassenvertreter der Folgezustände an.</t>
-  </si>
-  <si>
-    <t>Der Nutzer wechselt damit ab, auf ein zufälliges freies Spielfeld zu klicken und auf den Zug der KI zu warten, bis das Spiel vorbei ist und Spieler 1 gewonnen hat.</t>
-  </si>
-  <si>
-    <t>Das "Pause"-Symbol wird durch ein "Play"-Symbol ersetzt. Es wird kein Zug ausgeführt, da das Spiel vorbei ist.</t>
-  </si>
-  <si>
     <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wechselt damit ab, auf ein zufälliges freies Spielfeld zu klicken und auf das "NextMove"-Symbol zu klicken, bis das Spiel vorbei ist und Spieler 1 gewonnen hat.</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das "Play"-Symbol ist weiterhin durch ein "Pause"-Symbol ersetzt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Äquivalenzklassenvertreter der Folgezustände an.</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das "Play"-Symbol ist zu sehen und nicht durch das "Pause"-Symbol ersetzt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Äquivalenzklassenvertreter der Folgezustände an.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld rechts oben.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf ein freies Feld des Spielfeldes, welches das Spiel nicht beendet. (Ein Zug beendet ein Spiel, falls drei Kreuze in in einer waagrechten/senkrechten/schrägen Reihe sind)</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt. Die KI macht keinen Zug, da AutoPlay mittels "Pause"-Button deaktiviert wurde.</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,28 +579,28 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -608,34 +608,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,47 +643,47 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -693,15 +693,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -717,211 +717,235 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
+      <c r="A47" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>16</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC5DDB0-A24B-48FE-99AC-D5DDE382B6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0333A-C1C7-4CDD-8626-DFD036BB308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt. Die KI macht keinen Zug, da AutoPlay mittels "Pause"-Button deaktiviert wurde.</t>
+  </si>
+  <si>
+    <t>Es wird in die Startansicht gewechselt, in welchem die Spieler ausgewählt werden.</t>
   </si>
 </sst>
 </file>
@@ -527,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +843,7 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0333A-C1C7-4CDD-8626-DFD036BB308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5C427-7F64-4F09-90F1-347EB91EA71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Es passiert nichts, da das Feld bereits besetzt ist.</t>
   </si>
   <si>
-    <t>Test: Doppelbesetzung</t>
-  </si>
-  <si>
-    <t>Der Nutzer klickt auf ein bereits besetztes Feld des Spielfeldes.</t>
-  </si>
-  <si>
     <t>Der Nutzer klickt auf das "Pause"-Symbol.</t>
   </si>
   <si>
@@ -202,6 +196,39 @@
   </si>
   <si>
     <t>Es wird in die Startansicht gewechselt, in welchem die Spieler ausgewählt werden.</t>
+  </si>
+  <si>
+    <t>Test: Spielfeldbesetzung - Randfälle</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld oben rechts.</t>
+  </si>
+  <si>
+    <t>Es passiert nichts, da der Spieler "Mensch" nicht an der Reihe ist.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das gerade von der KI ausgewählte Feld, welches mit einem "O" versehen wurde.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 1 "Mensch", für Spieler 2 "Mensch" und klickt auf das Feld "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld unten links.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "O" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld oben in der Mitte.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld unten in der Mitte.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird der aktualisierte Verlauf ohne Äquivalenzklassenvertreter der Folgezustände angezeigt. Das Spielergebnis wird angezeigt: "Spieler 1 gewinnt!"</t>
+  </si>
+  <si>
+    <t>Es passiert nichts, da das Spiel bereits beendet ist.</t>
   </si>
 </sst>
 </file>
@@ -528,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,28 +609,28 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -611,34 +638,34 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -646,47 +673,47 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,15 +723,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -720,18 +747,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -744,10 +771,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -755,23 +782,23 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -779,12 +806,12 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -792,58 +819,58 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,104 +878,216 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>21</v>
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>16</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5C427-7F64-4F09-90F1-347EB91EA71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484ABC6B-66B6-45A4-B826-B21AD4680250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>Es passiert nichts, da das Spiel bereits beendet ist.</t>
+  </si>
+  <si>
+    <t>Test: Unentschieden</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird der aktualisierte Verlauf ohne Äquivalenzklassenvertreter der Folgezustände angezeigt. Das Spielergebnis wird angezeigt: "Unentschieden!"</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld in der Mitte links.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld in der Mitte.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf dem Spielfeld auf das Feld in der Mitte rechts.</t>
   </si>
 </sst>
 </file>
@@ -555,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,78 +1031,163 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>16</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484ABC6B-66B6-45A4-B826-B21AD4680250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86011BCC-D779-4CF2-A732-B0F57B478A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,15 +120,6 @@
     <t>Test: Standardablauf/Epic</t>
   </si>
   <si>
-    <t>(Noch nicht implementiert: Die Checkbox wird mit einem Haken versehen.)</t>
-  </si>
-  <si>
-    <t>(Noch nicht implementiert: Der Nutzer klickt auf die Checkbox "Belohnungsansicht überspringen".)</t>
-  </si>
-  <si>
-    <t>(Noch nicht implementiert: Der Nutzer klickt auf die Checkbox "Startansicht überspringen".)</t>
-  </si>
-  <si>
     <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle Äquivalenzklassenvertreter der möglichen Folgezustände an.</t>
   </si>
   <si>
@@ -141,27 +132,9 @@
     <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt. Ein zufälliges freies Feld wird von der KI besetzt und mit Zeichen "O" versehen.  Im Graph wird der aktualisierte Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände angezeigt.</t>
   </si>
   <si>
-    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. Sobald das Spiel vorbei ist, wird das Spielergebnis angezeigt. (Nicht implementiert: Es wird in die Belohnungsansicht gewechselt. Auf der rechten Seite wird als Graph der gesamte gewichtete Verlauf mit pro Zustand allen möglichen Äquivalenzklassenvertretern der Folgezuständen angezeigt.)</t>
-  </si>
-  <si>
-    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. (Noch nicht implementiert: Sobald das Spiel vorbei ist, wird direkt das Spielfeld geleert und der Verlauf-Graph auf das leere Feld mit allen möglichen Äquivalenzklassenvertretern der Folgezuständen geändert.)</t>
-  </si>
-  <si>
-    <t>(Noch nicht implementiert: Der Haken in der Checkbox wird entfernt.)</t>
-  </si>
-  <si>
-    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. (Noch nicht implementiert: Sobald das Spiel vorbei ist, wird in die Startansicht gewechselt.)</t>
-  </si>
-  <si>
-    <t>(Noch nicht implementiert: Es ändert sich nichts, da nur die Gewichte der KI gelöscht wurden.)</t>
-  </si>
-  <si>
     <t>Der Nutzer wählt für Spieler 1 "Mensch", für Spieler 2 "KI 1" und klickt auf das Feld "Spiel starten".</t>
   </si>
   <si>
-    <t>(Noch nicht implementiert: Der Nutzer klickt auf das Feld "Reset" neben KI 1.)</t>
-  </si>
-  <si>
     <t>Der Nutzer klickt auf dem Spielfeld auf das Feld unten rechts.</t>
   </si>
   <si>
@@ -244,6 +217,33 @@
   </si>
   <si>
     <t>Der Nutzer klickt auf dem Spielfeld auf das Feld in der Mitte rechts.</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. Sobald das Spiel vorbei ist, wird das Spielergebnis angezeigt. Es wird in die Belohnungsansicht gewechselt. Auf der rechten Seite wird als Graph der gesamte gewichtete Verlauf mit pro Zustand allen möglichen Äquivalenzklassenvertretern der Folgezuständen angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf die Checkbox "Startansicht überspringen".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Der Nutzer klickt auf die Checkbox "Belohnungsansicht überspringen".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das Feld "Reset" neben KI 1.</t>
+  </si>
+  <si>
+    <t>Es ändert sich nichts, da nur die Gewichte der KI gelöscht wurden.</t>
+  </si>
+  <si>
+    <t>Der Haken in der Checkbox wird entfernt.</t>
+  </si>
+  <si>
+    <t>Die Checkbox wird mit einem Haken versehen.</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. Sobald das Spiel vorbei ist, wird direkt das Spielfeld geleert und der Verlauf-Graph auf das leere Feld mit allen möglichen Äquivalenzklassenvertretern der Folgezuständen geändert.</t>
+  </si>
+  <si>
+    <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. Sobald das Spiel vorbei ist, wird in die Startansicht gewechselt.</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,15 +632,15 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +656,7 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -677,10 +677,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,15 +688,15 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -704,15 +704,15 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -720,15 +720,15 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,10 +738,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,10 +762,10 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -786,10 +786,10 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,15 +797,15 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -834,18 +834,18 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,15 +853,15 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -877,7 +877,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,20 +893,20 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -914,15 +914,15 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -930,12 +930,12 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,10 +967,10 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -978,7 +978,7 @@
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,55 +991,55 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1047,71 +1047,71 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86011BCC-D779-4CF2-A732-B0F57B478A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD43A0-E3F5-41DA-B8FE-6B65063327B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
   <si>
-    <t>Es wird im DropDown-Menü eine List aller möglichen Spieler angezeigt.</t>
-  </si>
-  <si>
     <t>Der Nutzer wählt die Option "Mensch" im DropDown-Menü aus.</t>
   </si>
   <si>
@@ -51,18 +48,6 @@
     <t>Der Nutzer klickt auf das Feld "Spiel starten".</t>
   </si>
   <si>
-    <t>Es wird in die Spielansicht gewechselt. Das Spielfeld ist leer. Der Graph zeigt das leere Feld und alle möglichen Folgezustände an.</t>
-  </si>
-  <si>
-    <t>Das angeklickte Feld wird mit dem Zeichen "X" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt.</t>
-  </si>
-  <si>
-    <t>Der Nutzer klickt auf den Button "Neustart".</t>
-  </si>
-  <si>
-    <t>Die Spielerauswahl wird angezeigt.</t>
-  </si>
-  <si>
     <t>Test: AutoPlay/Pause</t>
   </si>
   <si>
@@ -75,9 +60,6 @@
     <t>Der Nutzer klickt auf das "NextMove"-Symbol.</t>
   </si>
   <si>
-    <t>Der Nutzer klickt auf ein unbesetztes Feld des Spielfeldes.</t>
-  </si>
-  <si>
     <t>Es passiert nichts, da das Feld bereits besetzt ist.</t>
   </si>
   <si>
@@ -87,18 +69,9 @@
     <t>Test: Spiel mit zwei Menschen</t>
   </si>
   <si>
-    <t>Als Spieler 2 wird ein Mensch festgelegt. Im DropDown-Menü wird angezeigt, dass die Option ausgewählt wurde.</t>
-  </si>
-  <si>
     <t>Der Nutzer klickt auf das "Play"-Symbol.</t>
   </si>
   <si>
-    <t>Das angeklickte Feld wird mit dem Zeichen "O" versehen. Im Graph wird jetzt der Verlauf plus alle weiteren möglichen Folgezustände angezeigt.</t>
-  </si>
-  <si>
-    <t>Der Nutzer klickt auf "Spiel starten"</t>
-  </si>
-  <si>
     <t>Es wird im DropDown-Menü eine Liste aller möglichen Spieler angezeigt.</t>
   </si>
   <si>
@@ -244,6 +217,9 @@
   </si>
   <si>
     <t>Das Spielfeld wird laufend aktualisiert. Der Graph zeigt jeweils immer den aktualisierten Verlauf mit allen für die aktuelle Spielsituation möglichen Äquivalenzklassenvertretern der Folgezustände an. Sobald das Spiel vorbei ist, wird in die Startansicht gewechselt.</t>
+  </si>
+  <si>
+    <t>Führe Schritte von "Test: Spiel mit zwei Menschen" durch.</t>
   </si>
 </sst>
 </file>
@@ -570,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,603 +568,544 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
+      <c r="A52" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B65" t="s">
-        <v>32</v>
+      <c r="A65" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>19</v>
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FD43A0-E3F5-41DA-B8FE-6B65063327B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD5BDA6-537F-486F-A6DB-C97431F52796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Gerätespecs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -548,22 +549,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="142.21875" customWidth="1"/>
-    <col min="2" max="2" width="228.109375" customWidth="1"/>
+    <col min="1" max="1" width="142.28515625" customWidth="1"/>
+    <col min="2" max="2" width="228.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -579,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -587,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -595,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -603,7 +604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -611,7 +612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -619,7 +620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -627,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -635,7 +636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -643,7 +644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -651,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -659,7 +660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -667,7 +668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -675,7 +676,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -683,7 +684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -691,7 +692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -699,7 +700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -707,12 +708,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -720,7 +721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -728,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -736,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -744,7 +745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -752,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -760,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -768,7 +769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -776,7 +777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -784,7 +785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -792,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -800,7 +801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -808,7 +809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -816,7 +817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -824,7 +825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -832,7 +833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -840,7 +841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -848,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -856,7 +857,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -864,7 +865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -872,12 +873,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -885,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -893,7 +894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -901,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -909,7 +910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -917,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -925,7 +926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -933,12 +934,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -946,7 +947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -954,7 +955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -962,7 +963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -970,7 +971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -978,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -986,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -994,7 +995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -1010,12 +1011,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1023,12 +1024,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -1111,4 +1112,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651AFE88-806E-4574-AED0-363C8FFDCEFE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E158F316-EA86-439B-9A14-E9907CE96E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7EFF2A-FEAF-402F-8404-B609D914DBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Sobald das Spiel beendet ist, wird direkt das Spielfeld geleert und der Graph wird in den Ausgangszustand gebracht.</t>
   </si>
   <si>
-    <t>Der Nutzer wechselt damit ab, auf ein zufälliges freies Spielfeld zu klicken und auf den Zug der KI zu warten, bis das Spiel beendet ist.</t>
-  </si>
-  <si>
     <t>Sobald das Spiel beendet ist, wird in die Startansicht gewechselt.</t>
   </si>
   <si>
@@ -242,6 +239,57 @@
   </si>
   <si>
     <t>Das Spielergebnis wird angezeigt: "Unentschieden!"</t>
+  </si>
+  <si>
+    <t>Test: Elimination Belohnung Gewinnen</t>
+  </si>
+  <si>
+    <t>Voraussetzung: Der Nutzer wählt für Spieler 1 "Mensch", für Spieler 2 "KI-Elimination", klickt auf das Feld "Spiel starten" und dann auf das "Play"-Symbol.</t>
+  </si>
+  <si>
+    <t>Falls die KI verloren hat, wiederhole den Test: Elimination Belohnung Gewinnen. Falls die KI gewonnen hat, mach den nächsten Schritt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf die Felder "Weiter" und "Belohnung ausführen".</t>
+  </si>
+  <si>
+    <t>Test: Elimination Belohnung Verlieren</t>
+  </si>
+  <si>
+    <t>Falls die KI gewonnen hat, wiederhole den Test: Elimination Belohnung Verlieren. Falls die KI verloren hat, mach den nächsten Schritt.</t>
+  </si>
+  <si>
+    <t>Test: Elimination Belohnung Unentschieden</t>
+  </si>
+  <si>
+    <t>Falls ein Spieler gewonnen hat, wiederhole den Test: Elimination Belohnung Unentschieden. Falls es ein Unentschieden gab, mach den nächsten Schritt.</t>
+  </si>
+  <si>
+    <t>Die Gewichte der KI ändern sich nicht.</t>
+  </si>
+  <si>
+    <t>Test: Fehlerrückführung Belohnung Gewinnen</t>
+  </si>
+  <si>
+    <t>Voraussetzung: Der Nutzer wählt für Spieler 1 "Mensch", für Spieler 2 "KI-Fehlerrückführung", klickt auf das Feld "Spiel starten" und dann auf das "Play"-Symbol.</t>
+  </si>
+  <si>
+    <t>Falls die KI verloren hat, wiederhole den Test: Fehlerrückführung Belohnung Gewinnen. Falls die KI gewonnen hat, mach den nächsten Schritt.</t>
+  </si>
+  <si>
+    <t>Test: Fehlerrückführung Belohnung Verlieren</t>
+  </si>
+  <si>
+    <t>Falls die KI gewonnen hat, wiederhole den Test: Fehlerrückführung Belohnung Verlieren. Falls die KI verloren hat, mach den nächsten Schritt.</t>
+  </si>
+  <si>
+    <t>Test: Fehlerrückführung Belohnung Unentschieden</t>
+  </si>
+  <si>
+    <t>Falls ein Spieler gewonnen hat, wiederhole den Test: Fehlerrückführung Belohnung Unentschieden. Falls es ein Unentschieden gab, mach den nächsten Schritt.</t>
+  </si>
+  <si>
+    <t>Die Gewichte der KI, die im Graphen angezeigt werden, ändern sich wie in der Definition der EliminationKI festgelegt.</t>
   </si>
 </sst>
 </file>
@@ -568,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,10 +779,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,7 +921,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -899,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -957,15 +1005,15 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
         <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +1046,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
@@ -1085,7 +1133,175 @@
         <v>23</v>
       </c>
       <c r="B78" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7EFF2A-FEAF-402F-8404-B609D914DBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA73A3-1E08-4097-B014-D1D929FD9ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Die Gewichte der KI, die im Graphen angezeigt werden, ändern sich wie in der Definition der EliminationKI festgelegt.</t>
+  </si>
+  <si>
+    <t>Die Gewichte der KI, die im Graphen angezeigt werden, ändern sich wie in der Definition der FehlerrückführungKI festgelegt.</t>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,7 +1248,7 @@
         <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1273,7 +1276,7 @@
         <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1301,7 +1304,7 @@
         <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA73A3-1E08-4097-B014-D1D929FD9ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA816A2-49F1-4B57-8FDA-6A5B58B7B629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -293,6 +293,153 @@
   </si>
   <si>
     <t>Die Gewichte der KI, die im Graphen angezeigt werden, ändern sich wie in der Definition der FehlerrückführungKI festgelegt.</t>
+  </si>
+  <si>
+    <t>Test: Spiel mit zwei KIs</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 1 "KI-Elimination", für Spieler 2 "KI-Fehlerrückführung" und klickt auf das Feld "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Der Graph ist im Ausgangszustand. Es stehen zwei Beschriftungen an den Kanten. Die Beschriftungen an den Kanten sind rot und blau gefärbt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "NextMove"-Symbol</t>
+  </si>
+  <si>
+    <t>Zufällige freie Felder werden von den KIs besetzt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "Play"-Symbol, bevor das Spiel beendet ist.</t>
+  </si>
+  <si>
+    <t>Keine weiteren Felder werden besetzt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Nutzer klickt auf das "Play"-Symbol und wartet bis das Spiel beendet ist. </t>
+  </si>
+  <si>
+    <t>Der Belohnungsbildschirm wird für die Evaluationsstrategie Elimination aufgerufen.</t>
+  </si>
+  <si>
+    <t>Der Belohnungsbildschirm wird für die Evaluationsstrategie Fehlerrückführung aufgerufen.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 2 "KI-Elimination".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Es wird in die Spielansicht gewechselt. Das Feld ist leer und der Graph ist im Ausgangszustand.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "Play"-Symbol und wartet bis das Spiel beendet ist.</t>
+  </si>
+  <si>
+    <t>Der Spieler drückt auf "Weiter".</t>
+  </si>
+  <si>
+    <t>Test: KI erzeugen</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von "Wähle einen KI-Typ".</t>
+  </si>
+  <si>
+    <t>Es wird im DropDown-Menü eine Liste aller möglichen Spieler angezeigt. Die Optionen sind: "Elimination", "Fehlerrückführung", "Zufällig"</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt die Option "Elimination" im DropDown-Menü aus.</t>
+  </si>
+  <si>
+    <t>Im Feld des DropDown-Menüs für "Wähle einen KI-Typ" steht "Elimination".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das Feld "Wähle einen Namen für die KI".</t>
+  </si>
+  <si>
+    <t>Das Feld ist beschreibbar.</t>
+  </si>
+  <si>
+    <t>Der Nutzer schreibt "KI 1" in das Feld.</t>
+  </si>
+  <si>
+    <t>Im Feld "Wähle einen Namen für die KI" steht "KI 1".</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf "Erstelle eine neue KI".</t>
+  </si>
+  <si>
+    <t>In der Liste der KIs wird die neue KI angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt die Option "Fehlerrückführung" im DropDown-Menü aus.</t>
+  </si>
+  <si>
+    <t>Im Feld des DropDown-Menüs für "Wähle einen KI-Typ" steht "Fehlerrückführung".</t>
+  </si>
+  <si>
+    <t>Der Nutzer schreibt "KI 2" in das Feld.</t>
+  </si>
+  <si>
+    <t>Im Feld "Wähle einen Namen für die KI" steht "KI 2".</t>
+  </si>
+  <si>
+    <t>In der Liste wird die neue KI angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 1 "KI 1", für Spieler 2 "KI 2".</t>
+  </si>
+  <si>
+    <t>In den beiden Feldern steht "KI 1" und "KI 2".</t>
+  </si>
+  <si>
+    <t>Ein Spiel wird komplett durchgespielt und die KIs werden belohnt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt im Startbildschirm auf den Knopf "Zurücksetzen" neben der "KI 2".</t>
+  </si>
+  <si>
+    <t>Der Nutzer startet ein neues Spiel.</t>
+  </si>
+  <si>
+    <t>Die "KI 2" hat die gleichen Gewichte, wie beim ersten durchspielen.</t>
+  </si>
+  <si>
+    <t>Test: Slider</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 1 "KI-Elimination", für Spieler 2 "KI-Elimination" und klickt auf das Feld "Spiel starten".</t>
+  </si>
+  <si>
+    <t>In der Spielansicht existiert ein Slider, welcher auf ganz links eingestellt ist.</t>
+  </si>
+  <si>
+    <t>Der Nutzer bewegt den Slider nach ganz rechts.</t>
+  </si>
+  <si>
+    <t>Der Slider bewegt sich mit der Maus.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf den Slider, hält die Maus gedrückt und zieht sie nach ganz rechts und wieder nach ganz links.</t>
+  </si>
+  <si>
+    <t>Die Geschwindigkeit, mit der die KI die Züge macht erhöht sich.</t>
+  </si>
+  <si>
+    <t>Der Nutzer wartet, bis das Spiel beendet ist, klickt auf "Weiter", "Belohnung ausführen", "Weiter" und auf "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Der Slider ist auf ganz rechts eingestellt und die KI macht ihre Züge weiterhin sehr schnell.</t>
+  </si>
+  <si>
+    <t>Test: Speedrun</t>
+  </si>
+  <si>
+    <t>Der Nutzer stellt den Slider auf ganz rechts.</t>
+  </si>
+  <si>
+    <t>Die KIs machen sehr schnell ihre Züge und es werden mehrere Spiele hintereinander ausgeführt.</t>
   </si>
 </sst>
 </file>
@@ -619,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,6 +1452,299 @@
       </c>
       <c r="B114" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>113</v>
+      </c>
+      <c r="B138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>105</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>115</v>
+      </c>
+      <c r="B140" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>120</v>
+      </c>
+      <c r="B144" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAG-Leonid\Documents\Uni\ticTacToeTeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA816A2-49F1-4B57-8FDA-6A5B58B7B629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F01BB-0949-4829-8C98-B8FC8A0790EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -403,9 +403,6 @@
     <t>Der Nutzer startet ein neues Spiel.</t>
   </si>
   <si>
-    <t>Die "KI 2" hat die gleichen Gewichte, wie beim ersten durchspielen.</t>
-  </si>
-  <si>
     <t>Test: Slider</t>
   </si>
   <si>
@@ -440,6 +437,18 @@
   </si>
   <si>
     <t>Die KIs machen sehr schnell ihre Züge und es werden mehrere Spiele hintereinander ausgeführt.</t>
+  </si>
+  <si>
+    <t>Die Seite wird neu geladen.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit "X" belegt. Sonst ändert sich nichts.</t>
+  </si>
+  <si>
+    <t>Das angeklickte Feld wird mit "O" belegt. Sonst ändert sich nichts.</t>
+  </si>
+  <si>
+    <t>Die "KI 2" hat die gleichen Gewichte wie beim ersten durchspielen.</t>
   </si>
 </sst>
 </file>
@@ -768,22 +777,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="72.33203125" customWidth="1"/>
-    <col min="2" max="2" width="228.109375" customWidth="1"/>
+    <col min="2" max="2" width="228.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -799,7 +808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -807,7 +816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -815,7 +824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -823,7 +832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -831,7 +840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -839,7 +848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -847,7 +856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -855,7 +864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -863,7 +872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -871,7 +880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -879,7 +888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -887,7 +896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -895,7 +904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -903,7 +912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -911,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -919,7 +928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -927,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -935,7 +944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -943,17 +952,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -961,7 +970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -969,7 +978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -977,7 +986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -985,7 +994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -993,12 +1002,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1006,17 +1015,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1064,22 +1073,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1087,12 +1096,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1100,15 +1109,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1116,15 +1125,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1140,17 +1149,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1166,22 +1175,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1189,12 +1198,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1210,17 +1219,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -1228,57 +1237,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -1286,27 +1295,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -1314,27 +1323,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -1342,27 +1351,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -1370,27 +1379,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -1398,27 +1407,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>74</v>
       </c>
@@ -1426,27 +1435,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -1454,12 +1463,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -1467,12 +1476,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>94</v>
       </c>
@@ -1488,12 +1497,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>65</v>
       </c>
@@ -1501,12 +1510,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>65</v>
       </c>
@@ -1514,12 +1523,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -1527,12 +1536,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>100</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>102</v>
       </c>
@@ -1548,12 +1557,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -1561,12 +1570,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>105</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>107</v>
       </c>
@@ -1582,7 +1591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>109</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>111</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>113</v>
       </c>
@@ -1606,7 +1615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>105</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>115</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>109</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>113</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>120</v>
       </c>
@@ -1654,97 +1663,97 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>124</v>
       </c>
       <c r="B147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
         <v>127</v>
       </c>
-      <c r="B150" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B153" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
         <v>133</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1767,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IAG-Leonid\Documents\Uni\ticTacToeTeamprojekt\Integrationstests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1F01BB-0949-4829-8C98-B8FC8A0790EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E95CB1-6BF7-4489-AFFA-7103EF60672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>Der Graph ist im Ausgangszustand. Es stehen zwei Beschriftungen an den Kanten. Die Beschriftungen an den Kanten sind rot und blau gefärbt.</t>
   </si>
   <si>
-    <t>Der Nutzer klickt auf das "NextMove"-Symbol</t>
-  </si>
-  <si>
     <t>Zufällige freie Felder werden von den KIs besetzt.</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>Der Nutzer klickt auf "Erstelle eine neue KI".</t>
   </si>
   <si>
-    <t>In der Liste der KIs wird die neue KI angezeigt.</t>
-  </si>
-  <si>
     <t>Der Nutzer wählt die Option "Fehlerrückführung" im DropDown-Menü aus.</t>
   </si>
   <si>
@@ -385,9 +379,6 @@
     <t>Im Feld "Wähle einen Namen für die KI" steht "KI 2".</t>
   </si>
   <si>
-    <t>In der Liste wird die neue KI angezeigt.</t>
-  </si>
-  <si>
     <t>Der Nutzer wählt für Spieler 1 "KI 1", für Spieler 2 "KI 2".</t>
   </si>
   <si>
@@ -449,6 +440,15 @@
   </si>
   <si>
     <t>Die "KI 2" hat die gleichen Gewichte wie beim ersten durchspielen.</t>
+  </si>
+  <si>
+    <t>Im Startbildschirm ist auf der rechten Seite eine Liste mit allen existierenden KIs zu sehen. Die beiden Einträge sind initial "KI-Elimination" und "KI-Fehlerrückführung".</t>
+  </si>
+  <si>
+    <t>In der Liste der KIs wird die neue KI "KI 1" zusätzlich angezeigt.</t>
+  </si>
+  <si>
+    <t>In der Liste wird die neue KI zusätzlich angezeigt.</t>
   </si>
 </sst>
 </file>
@@ -778,21 +778,21 @@
   <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.33203125" customWidth="1"/>
-    <col min="2" max="2" width="228.1328125" customWidth="1"/>
+    <col min="1" max="1" width="72.28515625" customWidth="1"/>
+    <col min="2" max="2" width="145.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -808,7 +808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -824,7 +824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -832,7 +832,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -840,7 +840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -848,7 +848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -856,7 +856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -864,7 +864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -872,7 +872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -880,7 +880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -888,7 +888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -896,7 +896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -904,7 +904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -912,7 +912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -920,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -928,7 +928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -936,7 +936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -944,7 +944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -952,17 +952,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -970,7 +970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -978,7 +978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -986,7 +986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -994,7 +994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1002,12 +1002,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1015,17 +1015,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1073,22 +1073,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1096,12 +1096,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1109,15 +1109,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1125,15 +1125,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1149,17 +1149,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1175,22 +1175,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1198,12 +1198,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1219,17 +1219,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -1237,57 +1237,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -1295,27 +1295,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -1323,27 +1323,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -1351,27 +1351,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -1379,27 +1379,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -1407,27 +1407,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>74</v>
       </c>
@@ -1435,27 +1435,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -1463,12 +1463,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -1476,284 +1476,285 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>65</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>65</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>102</v>
       </c>
-      <c r="B129" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+      <c r="B130" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B131" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
         <v>105</v>
       </c>
-      <c r="B134" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
         <v>107</v>
       </c>
-      <c r="B135" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
         <v>109</v>
       </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
         <v>111</v>
       </c>
-      <c r="B137" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
-        <v>113</v>
-      </c>
       <c r="B138" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>115</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B142" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
-        <v>109</v>
-      </c>
-      <c r="B141" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>117</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>113</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>120</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
+      <c r="B147" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
+      <c r="B150" t="s">
         <v>124</v>
       </c>
-      <c r="B147" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" t="s">
         <v>126</v>
       </c>
-      <c r="B150" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
-        <v>130</v>
-      </c>
-      <c r="B151" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" t="s">
         <v>128</v>
       </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>132</v>
       </c>
-      <c r="B154" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1768,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E95CB1-6BF7-4489-AFFA-7103EF60672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2E586-D659-45C0-83FA-6D573532ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -449,6 +449,24 @@
   </si>
   <si>
     <t>In der Liste wird die neue KI zusätzlich angezeigt.</t>
+  </si>
+  <si>
+    <t>Test: Bildschirme überspringen</t>
+  </si>
+  <si>
+    <t>Der Nutzer wählt für Spieler 1 "Mensch", für Spieler 2 "KI-Elimination" und klickt auf das Feld "Spiel starten".</t>
+  </si>
+  <si>
+    <t>Die Spielansicht wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt abwechselnd selber auf ein freies Feld und löst Züge der KI aus, bis das Spiel beendet ist.</t>
+  </si>
+  <si>
+    <t>Die Checkbox ist nicht mehr mit einem Haken versehen.</t>
+  </si>
+  <si>
+    <t>Die Startansicht wird angezeigt</t>
   </si>
 </sst>
 </file>
@@ -775,15 +793,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.28515625" customWidth="1"/>
+    <col min="1" max="1" width="98.28515625" customWidth="1"/>
     <col min="2" max="2" width="145.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1755,6 +1773,130 @@
       </c>
       <c r="B161" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>28</v>
+      </c>
+      <c r="B170" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>43</v>
+      </c>
+      <c r="B173" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>29</v>
+      </c>
+      <c r="B175" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>43</v>
+      </c>
+      <c r="B179" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2E586-D659-45C0-83FA-6D573532ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AAB5C-EFE4-4028-9FBD-B99948A46C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="154">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Der Nutzer klickt auf das "NextMove"-Symbol (="Play"-Symbol mit | rechts).</t>
   </si>
   <si>
-    <t>Das "Play"-Symbol wird durch ein "Pause"-Symbol ersetzt.</t>
-  </si>
-  <si>
     <t>Der Nutzer klickt auf dem Spielfeld auf das Feld rechts oben.</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>Zufällige freie Felder werden von den KIs besetzt.</t>
   </si>
   <si>
-    <t>Der Nutzer klickt auf das "Play"-Symbol, bevor das Spiel beendet ist.</t>
-  </si>
-  <si>
     <t>Keine weiteren Felder werden besetzt.</t>
   </si>
   <si>
@@ -467,6 +461,33 @@
   </si>
   <si>
     <t>Die Startansicht wird angezeigt</t>
+  </si>
+  <si>
+    <t>Leonid Surface</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows 11 Pro</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Microsoft Edge Version 120  (64 Bit)</t>
+  </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>mit Touchdisplay</t>
+  </si>
+  <si>
+    <t>Das "Pause"-Symbol wird durch ein "Play"-Symbol ersetzt.</t>
+  </si>
+  <si>
+    <t>Der Nutzer klickt auf das "Pause"-Symbol, bevor das Spiel beendet ist.</t>
   </si>
 </sst>
 </file>
@@ -795,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,10 +857,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,15 +868,15 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +884,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,31 +892,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,23 +924,23 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,57 +948,57 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,7 +1022,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,12 +1038,12 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,12 +1051,12 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,31 +1069,31 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,15 +1101,15 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,12 +1119,12 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,10 +1142,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,15 +1161,15 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,43 +1185,43 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
         <v>65</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,10 +1231,10 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,10 +1244,10 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,17 +1255,17 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,17 +1273,17 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,32 +1293,32 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,191 +1328,191 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>89</v>
+      </c>
+      <c r="B117" t="s">
         <v>90</v>
-      </c>
-      <c r="B117" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,28 +1520,28 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B121" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,10 +1551,10 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,31 +1564,31 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
         <v>65</v>
-      </c>
-      <c r="B125" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1577,66 +1598,66 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B135" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -1644,81 +1665,81 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B140" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B142" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B144" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B150" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,43 +1749,43 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,41 +1793,41 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,44 +1835,44 @@
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B170" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B173" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,28 +1880,28 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B175" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,15 +1909,15 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1906,12 +1927,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651AFE88-806E-4574-AED0-363C8FFDCEFE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anony\Documents\Uni\TicTacToeamprojekt\Integrationstests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF2E586-D659-45C0-83FA-6D573532ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE682AF4-8317-4E0B-9831-A798712937F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von "Wähle einen KI-Typ".</t>
   </si>
   <si>
-    <t>Es wird im DropDown-Menü eine Liste aller möglichen Spieler angezeigt. Die Optionen sind: "Elimination", "Fehlerrückführung", "Zufällig"</t>
-  </si>
-  <si>
     <t>Der Nutzer wählt die Option "Elimination" im DropDown-Menü aus.</t>
   </si>
   <si>
@@ -467,6 +464,12 @@
   </si>
   <si>
     <t>Die Startansicht wird angezeigt</t>
+  </si>
+  <si>
+    <t>Es wird im DropDown-Menü eine Liste aller möglicher KI-Typen angezeigt. Die Optionen sind: "Elimination", "Fehlerrückführung", "Zufällig"</t>
+  </si>
+  <si>
+    <t>Es wird im DropDown-Menü eine Liste aller möglicher KI-Typen angezeigt.</t>
   </si>
 </sst>
 </file>
@@ -795,22 +798,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.28515625" customWidth="1"/>
-    <col min="2" max="2" width="145.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.33203125" customWidth="1"/>
+    <col min="2" max="2" width="145.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -818,7 +821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -826,7 +829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -834,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -842,7 +845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -850,7 +853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -858,7 +861,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -866,7 +869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -874,7 +877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -882,7 +885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -890,7 +893,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -898,7 +901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -906,7 +909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -914,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -922,7 +925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -930,7 +933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -938,7 +941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -946,7 +949,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -954,7 +957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -962,7 +965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -970,17 +973,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -988,7 +991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -996,7 +999,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1020,12 +1023,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1033,17 +1036,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1091,22 +1094,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1114,12 +1117,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1127,15 +1130,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1143,15 +1146,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1167,17 +1170,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1193,22 +1196,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1216,12 +1219,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1237,17 +1240,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -1255,57 +1258,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -1313,27 +1316,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -1341,27 +1344,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -1369,27 +1372,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -1397,27 +1400,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -1425,27 +1428,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>74</v>
       </c>
@@ -1453,27 +1456,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -1481,12 +1484,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -1510,12 +1513,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -1523,12 +1526,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -1536,12 +1539,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -1549,12 +1552,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>101</v>
       </c>
@@ -1570,12 +1573,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>102</v>
       </c>
@@ -1583,212 +1586,212 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>104</v>
       </c>
       <c r="B134" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
         <v>106</v>
       </c>
-      <c r="B135" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
         <v>108</v>
       </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
         <v>110</v>
       </c>
-      <c r="B137" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>112</v>
-      </c>
       <c r="B138" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>104</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>112</v>
+      </c>
+      <c r="B140" t="s">
         <v>113</v>
       </c>
-      <c r="B140" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>108</v>
-      </c>
-      <c r="B141" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
         <v>115</v>
       </c>
-      <c r="B142" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>111</v>
+      </c>
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>112</v>
-      </c>
-      <c r="B143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
         <v>117</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B147" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
         <v>123</v>
       </c>
-      <c r="B150" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B153" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
         <v>129</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
         <v>142</v>
       </c>
-      <c r="B164" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -1796,12 +1799,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -1817,23 +1820,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>43</v>
       </c>
       <c r="B169" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>28</v>
       </c>
       <c r="B170" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>29</v>
       </c>
@@ -1841,41 +1844,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>43</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -1891,12 +1894,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>43</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1913,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE682AF4-8317-4E0B-9831-A798712937F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7026B-C948-40AE-8A72-0C5242CA6036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="157">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -470,6 +470,33 @@
   </si>
   <si>
     <t>Es wird im DropDown-Menü eine Liste aller möglicher KI-Typen angezeigt.</t>
+  </si>
+  <si>
+    <t>Jonas Laptop</t>
+  </si>
+  <si>
+    <t>Gerätename</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Windows 11 Home</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Jonas iPad</t>
+  </si>
+  <si>
+    <t>iPadOS</t>
+  </si>
+  <si>
+    <t>Safari</t>
   </si>
 </sst>
 </file>
@@ -798,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
@@ -1909,12 +1936,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651AFE88-806E-4574-AED0-363C8FFDCEFE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Integrationstests/Integrationstests.xlsx
+++ b/Integrationstests/Integrationstests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\GitHub\ticTacToeamprojekt\Integrationstests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludaz\Documents\Studium\Fuenftes_Semester\Teamprojekt\ticTacToeamprojekt\Integrationstests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F7026B-C948-40AE-8A72-0C5242CA6036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2950E689-5EDB-45AA-9A11-393894C98274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7515" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="162">
   <si>
     <t>Der Nutzer klickt auf das DropDown-Menü für die Auswahl von Spieler 1.</t>
   </si>
@@ -497,6 +497,21 @@
   </si>
   <si>
     <t>Safari</t>
+  </si>
+  <si>
+    <t>Luis PC</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>Opera GX</t>
+  </si>
+  <si>
+    <t>Luis Laptop</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -545,7 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -829,18 +844,18 @@
       <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="98.33203125" customWidth="1"/>
-    <col min="2" max="2" width="145.109375" customWidth="1"/>
+    <col min="1" max="1" width="98.36328125" customWidth="1"/>
+    <col min="2" max="2" width="145.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -848,7 +863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -856,7 +871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -864,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -872,7 +887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -880,7 +895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -888,7 +903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -896,7 +911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -904,7 +919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -912,7 +927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -920,7 +935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -928,7 +943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -936,7 +951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -944,7 +959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -952,7 +967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -960,7 +975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -968,7 +983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -976,7 +991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -984,7 +999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -992,7 +1007,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1000,17 +1015,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1018,7 +1033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +1041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1050,12 +1065,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1063,17 +1078,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1112,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1105,7 +1120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1121,22 +1136,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1144,12 +1159,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1180,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1197,17 +1212,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1223,22 +1238,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1246,12 +1261,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1267,17 +1282,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -1285,57 +1300,57 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -1343,27 +1358,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -1371,27 +1386,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -1399,27 +1414,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -1427,27 +1442,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -1455,27 +1470,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>74</v>
       </c>
@@ -1483,27 +1498,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>74</v>
       </c>
@@ -1511,12 +1526,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -1524,7 +1539,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1547,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -1540,12 +1555,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>65</v>
       </c>
@@ -1553,12 +1568,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>65</v>
       </c>
@@ -1566,12 +1581,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -1579,12 +1594,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>101</v>
       </c>
@@ -1600,12 +1615,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>102</v>
       </c>
@@ -1613,18 +1628,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -1632,7 +1647,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>105</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>107</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>109</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>111</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>104</v>
       </c>
@@ -1672,7 +1687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -1680,7 +1695,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>107</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>114</v>
       </c>
@@ -1696,7 +1711,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>111</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>116</v>
       </c>
@@ -1712,17 +1727,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>120</v>
       </c>
@@ -1730,12 +1745,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>122</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>126</v>
       </c>
@@ -1751,12 +1766,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>124</v>
       </c>
@@ -1764,7 +1779,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>128</v>
       </c>
@@ -1772,32 +1787,32 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -1805,12 +1820,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>141</v>
       </c>
@@ -1818,7 +1833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -1826,12 +1841,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -1839,7 +1854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>28</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>29</v>
       </c>
@@ -1871,12 +1886,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>43</v>
       </c>
@@ -1884,7 +1899,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -1892,7 +1907,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>29</v>
       </c>
@@ -1900,12 +1915,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -1936,15 +1951,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651AFE88-806E-4574-AED0-363C8FFDCEFE}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -1954,8 +1969,14 @@
       <c r="C1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -1965,8 +1986,14 @@
       <c r="C2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1975,6 +2002,12 @@
       </c>
       <c r="C3" t="s">
         <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
